--- a/data/pca/factorExposure/factorExposure_2015-09-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02499097085111853</v>
+        <v>-0.02143407834906456</v>
       </c>
       <c r="C2">
-        <v>-0.03229376413282474</v>
+        <v>-0.04237616701057633</v>
       </c>
       <c r="D2">
-        <v>-0.1141071292158425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1287052697810322</v>
+      </c>
+      <c r="E2">
+        <v>0.03798467908855803</v>
+      </c>
+      <c r="F2">
+        <v>-0.03229647993306202</v>
+      </c>
+      <c r="G2">
+        <v>-0.08369496331532841</v>
+      </c>
+      <c r="H2">
+        <v>-0.0634066290527857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.005022995733016774</v>
+        <v>0.0008033884858476525</v>
       </c>
       <c r="C3">
-        <v>-0.04833958261670232</v>
+        <v>-0.03710875236964438</v>
       </c>
       <c r="D3">
-        <v>-0.06018984979952355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04465874857755032</v>
+      </c>
+      <c r="E3">
+        <v>0.07017618748896376</v>
+      </c>
+      <c r="F3">
+        <v>-0.05713145656947281</v>
+      </c>
+      <c r="G3">
+        <v>-0.1366573826632481</v>
+      </c>
+      <c r="H3">
+        <v>-0.07543637032599841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05091692474907194</v>
+        <v>-0.04354816799605779</v>
       </c>
       <c r="C4">
-        <v>-0.06877859799066645</v>
+        <v>-0.08418195961087209</v>
       </c>
       <c r="D4">
-        <v>-0.1268228572281007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1453271691201662</v>
+      </c>
+      <c r="E4">
+        <v>0.05448295446878854</v>
+      </c>
+      <c r="F4">
+        <v>-0.05887579328284152</v>
+      </c>
+      <c r="G4">
+        <v>0.04829137231537452</v>
+      </c>
+      <c r="H4">
+        <v>-0.01243351815803694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03213028471193029</v>
+        <v>-0.03189311871785991</v>
       </c>
       <c r="C6">
-        <v>-0.02681811295136698</v>
+        <v>-0.03471009498032952</v>
       </c>
       <c r="D6">
-        <v>-0.149770724041823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1393069012525178</v>
+      </c>
+      <c r="E6">
+        <v>0.008752096928785024</v>
+      </c>
+      <c r="F6">
+        <v>-0.05651069618997238</v>
+      </c>
+      <c r="G6">
+        <v>-0.006232566136510934</v>
+      </c>
+      <c r="H6">
+        <v>-0.05711228769593506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.018289830940124</v>
+        <v>-0.01468604184552502</v>
       </c>
       <c r="C7">
-        <v>-0.03312157356312713</v>
+        <v>-0.03894880421549955</v>
       </c>
       <c r="D7">
-        <v>-0.1123711067744897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09899445183671605</v>
+      </c>
+      <c r="E7">
+        <v>-0.007992906833351644</v>
+      </c>
+      <c r="F7">
+        <v>-0.02590916598266938</v>
+      </c>
+      <c r="G7">
+        <v>-0.02379660302211156</v>
+      </c>
+      <c r="H7">
+        <v>-0.06240638124464906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01070341283306418</v>
+        <v>-0.005770576333796909</v>
       </c>
       <c r="C8">
-        <v>-0.03500101866150022</v>
+        <v>-0.03991097465278454</v>
       </c>
       <c r="D8">
-        <v>-0.06404057326021476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07742534495956847</v>
+      </c>
+      <c r="E8">
+        <v>0.02213467695323105</v>
+      </c>
+      <c r="F8">
+        <v>-0.0720958450859509</v>
+      </c>
+      <c r="G8">
+        <v>-0.05544277053341954</v>
+      </c>
+      <c r="H8">
+        <v>-0.03771864919960835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0410063276643718</v>
+        <v>-0.03403312756156377</v>
       </c>
       <c r="C9">
-        <v>-0.06075062410987491</v>
+        <v>-0.0728752557493164</v>
       </c>
       <c r="D9">
-        <v>-0.1179812875662777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.12439779453948</v>
+      </c>
+      <c r="E9">
+        <v>0.03663501477628119</v>
+      </c>
+      <c r="F9">
+        <v>-0.03695433705829618</v>
+      </c>
+      <c r="G9">
+        <v>0.03246738065525225</v>
+      </c>
+      <c r="H9">
+        <v>-0.005275444871607787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.129590641658449</v>
+        <v>-0.1769576640691766</v>
       </c>
       <c r="C10">
-        <v>0.1865641483999514</v>
+        <v>0.170462188236921</v>
       </c>
       <c r="D10">
-        <v>0.001067317042101008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.008248900642037975</v>
+      </c>
+      <c r="E10">
+        <v>0.03286268251897313</v>
+      </c>
+      <c r="F10">
+        <v>-0.04054785898152053</v>
+      </c>
+      <c r="G10">
+        <v>0.01140166475102691</v>
+      </c>
+      <c r="H10">
+        <v>0.04894226230290395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03349501312241886</v>
+        <v>-0.02737037419047123</v>
       </c>
       <c r="C11">
-        <v>-0.04320543644349201</v>
+        <v>-0.05158746822139203</v>
       </c>
       <c r="D11">
-        <v>-0.06085817263868069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05451147227146778</v>
+      </c>
+      <c r="E11">
+        <v>-0.01676282712646956</v>
+      </c>
+      <c r="F11">
+        <v>0.005260144121164227</v>
+      </c>
+      <c r="G11">
+        <v>-0.01272824968717671</v>
+      </c>
+      <c r="H11">
+        <v>-0.02715637517504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03885208508827166</v>
+        <v>-0.03077685547763875</v>
       </c>
       <c r="C12">
-        <v>-0.0454733076414947</v>
+        <v>-0.05228006553808597</v>
       </c>
       <c r="D12">
-        <v>-0.06734054097888992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05448804092136985</v>
+      </c>
+      <c r="E12">
+        <v>-0.008498729532877884</v>
+      </c>
+      <c r="F12">
+        <v>0.01005483549606971</v>
+      </c>
+      <c r="G12">
+        <v>-0.01361347436741538</v>
+      </c>
+      <c r="H12">
+        <v>-0.03157455740140832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01030113907818403</v>
+        <v>-0.01303090988210255</v>
       </c>
       <c r="C13">
-        <v>-0.03767817494871213</v>
+        <v>-0.04617957489894316</v>
       </c>
       <c r="D13">
-        <v>-0.1436883317932273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1588653841772325</v>
+      </c>
+      <c r="E13">
+        <v>0.004697778214486499</v>
+      </c>
+      <c r="F13">
+        <v>-0.07131265952766898</v>
+      </c>
+      <c r="G13">
+        <v>-0.04007329765756146</v>
+      </c>
+      <c r="H13">
+        <v>-0.0314518926727857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.004642451709910913</v>
+        <v>-0.005866822801265474</v>
       </c>
       <c r="C14">
-        <v>-0.02520565967274091</v>
+        <v>-0.02875376379454707</v>
       </c>
       <c r="D14">
-        <v>-0.1050954579492984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1057486179114986</v>
+      </c>
+      <c r="E14">
+        <v>0.0140339320424783</v>
+      </c>
+      <c r="F14">
+        <v>-0.02725399378983537</v>
+      </c>
+      <c r="G14">
+        <v>-0.02861132984863806</v>
+      </c>
+      <c r="H14">
+        <v>-0.08464536645259896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003081976647104213</v>
+        <v>-0.001517943930484794</v>
       </c>
       <c r="C15">
-        <v>-0.006176742376911982</v>
+        <v>-0.01441602549361731</v>
       </c>
       <c r="D15">
-        <v>-0.01082360556162465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04034700180519988</v>
+      </c>
+      <c r="E15">
+        <v>0.007429829974640798</v>
+      </c>
+      <c r="F15">
+        <v>-0.007798847661181361</v>
+      </c>
+      <c r="G15">
+        <v>-0.009009852417355749</v>
+      </c>
+      <c r="H15">
+        <v>-0.01884445959435055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0310905057104981</v>
+        <v>-0.02581202430417224</v>
       </c>
       <c r="C16">
-        <v>-0.04484527607920519</v>
+        <v>-0.05039176769100068</v>
       </c>
       <c r="D16">
-        <v>-0.07138453763930097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06074098217576548</v>
+      </c>
+      <c r="E16">
+        <v>-0.0007042847067147393</v>
+      </c>
+      <c r="F16">
+        <v>-0.001818381359893738</v>
+      </c>
+      <c r="G16">
+        <v>-0.01217173192986461</v>
+      </c>
+      <c r="H16">
+        <v>-0.04331182409099132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.009594219816631057</v>
+        <v>-0.00555732207117808</v>
       </c>
       <c r="C19">
-        <v>-0.03120109724989497</v>
+        <v>-0.02705707370435991</v>
       </c>
       <c r="D19">
-        <v>-0.1510326014310559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1137591586620892</v>
+      </c>
+      <c r="E19">
+        <v>0.04593103278881448</v>
+      </c>
+      <c r="F19">
+        <v>-0.01189097289238108</v>
+      </c>
+      <c r="G19">
+        <v>-0.02693626799458783</v>
+      </c>
+      <c r="H19">
+        <v>-0.04670986699860204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0138886580581876</v>
+        <v>-0.01368550545221538</v>
       </c>
       <c r="C20">
-        <v>-0.03625979054369981</v>
+        <v>-0.04075864373430202</v>
       </c>
       <c r="D20">
-        <v>-0.09523151155867393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1061804672781389</v>
+      </c>
+      <c r="E20">
+        <v>0.03491375676748466</v>
+      </c>
+      <c r="F20">
+        <v>-0.02437192975107624</v>
+      </c>
+      <c r="G20">
+        <v>-0.008433037361784213</v>
+      </c>
+      <c r="H20">
+        <v>-0.05312366759033166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01014013883259007</v>
+        <v>-0.007269701585723105</v>
       </c>
       <c r="C21">
-        <v>-0.04015894657917321</v>
+        <v>-0.04621412804598646</v>
       </c>
       <c r="D21">
-        <v>-0.1571030718647557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1542308816872079</v>
+      </c>
+      <c r="E21">
+        <v>0.06240531526893128</v>
+      </c>
+      <c r="F21">
+        <v>-0.06146973772356264</v>
+      </c>
+      <c r="G21">
+        <v>-0.009949817460984667</v>
+      </c>
+      <c r="H21">
+        <v>-0.07718101874618223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0009419887363199879</v>
+        <v>-0.007350716924468119</v>
       </c>
       <c r="C22">
-        <v>-0.05017532127192156</v>
+        <v>-0.05391178353926632</v>
       </c>
       <c r="D22">
-        <v>-0.1285245466264946</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1916982468037672</v>
+      </c>
+      <c r="E22">
+        <v>0.003625677881383642</v>
+      </c>
+      <c r="F22">
+        <v>-0.1234567997089865</v>
+      </c>
+      <c r="G22">
+        <v>-0.1194954261520357</v>
+      </c>
+      <c r="H22">
+        <v>0.08345905755172749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001112791884308603</v>
+        <v>-0.007423515024974667</v>
       </c>
       <c r="C23">
-        <v>-0.05049111281403717</v>
+        <v>-0.05447310041803999</v>
       </c>
       <c r="D23">
-        <v>-0.1279270271322493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.190813976899662</v>
+      </c>
+      <c r="E23">
+        <v>0.003827262521436678</v>
+      </c>
+      <c r="F23">
+        <v>-0.1234672400502195</v>
+      </c>
+      <c r="G23">
+        <v>-0.1188027729100057</v>
+      </c>
+      <c r="H23">
+        <v>0.08352789920705833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0372517911880752</v>
+        <v>-0.02827426616545588</v>
       </c>
       <c r="C24">
-        <v>-0.05804511462057544</v>
+        <v>-0.06275284167347414</v>
       </c>
       <c r="D24">
-        <v>-0.07080616712422569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06067536457325093</v>
+      </c>
+      <c r="E24">
+        <v>-0.003370371000133996</v>
+      </c>
+      <c r="F24">
+        <v>0.0005340284394323323</v>
+      </c>
+      <c r="G24">
+        <v>-0.005975196029712432</v>
+      </c>
+      <c r="H24">
+        <v>-0.05414231191232848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04167828471556355</v>
+        <v>-0.03319817652886202</v>
       </c>
       <c r="C25">
-        <v>-0.05153172333689551</v>
+        <v>-0.05955625296434734</v>
       </c>
       <c r="D25">
-        <v>-0.06818229076996335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06020861330131013</v>
+      </c>
+      <c r="E25">
+        <v>0.002449912757787896</v>
+      </c>
+      <c r="F25">
+        <v>-0.002386339246016153</v>
+      </c>
+      <c r="G25">
+        <v>-0.01204221742160193</v>
+      </c>
+      <c r="H25">
+        <v>-0.02086594787762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01446730149327164</v>
+        <v>-0.0140167411155423</v>
       </c>
       <c r="C26">
-        <v>-0.01674359456575322</v>
+        <v>-0.02453418300467783</v>
       </c>
       <c r="D26">
-        <v>-0.0741994620069005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07405506878375238</v>
+      </c>
+      <c r="E26">
+        <v>0.008416008207246013</v>
+      </c>
+      <c r="F26">
+        <v>-0.02922390694699801</v>
+      </c>
+      <c r="G26">
+        <v>-0.01682923818147185</v>
+      </c>
+      <c r="H26">
+        <v>-0.04741780082409228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1923938635741493</v>
+        <v>-0.253735275893485</v>
       </c>
       <c r="C28">
-        <v>0.2497099651540774</v>
+        <v>0.2208301494423478</v>
       </c>
       <c r="D28">
-        <v>0.007925715231353835</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.003579024179565085</v>
+      </c>
+      <c r="E28">
+        <v>0.06023375028794543</v>
+      </c>
+      <c r="F28">
+        <v>-0.02575530826631662</v>
+      </c>
+      <c r="G28">
+        <v>0.04142730397402562</v>
+      </c>
+      <c r="H28">
+        <v>0.06016152966330284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003762637281544345</v>
+        <v>-0.005322451120283894</v>
       </c>
       <c r="C29">
-        <v>-0.02376869378961038</v>
+        <v>-0.02798034756453201</v>
       </c>
       <c r="D29">
-        <v>-0.09610845134206915</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.103449163402344</v>
+      </c>
+      <c r="E29">
+        <v>-0.0001433499310853746</v>
+      </c>
+      <c r="F29">
+        <v>-0.04609158338423729</v>
+      </c>
+      <c r="G29">
+        <v>-0.02069596503321888</v>
+      </c>
+      <c r="H29">
+        <v>-0.07989148518762645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02951311002138662</v>
+        <v>-0.0305298552924836</v>
       </c>
       <c r="C30">
-        <v>-0.06600835883763197</v>
+        <v>-0.07726776054979181</v>
       </c>
       <c r="D30">
-        <v>-0.1588516161318001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1670677454406951</v>
+      </c>
+      <c r="E30">
+        <v>0.007100521658119772</v>
+      </c>
+      <c r="F30">
+        <v>-0.04079347272205405</v>
+      </c>
+      <c r="G30">
+        <v>-0.002200469192835158</v>
+      </c>
+      <c r="H30">
+        <v>-0.06680102522702766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05694833930696178</v>
+        <v>-0.04126701609445659</v>
       </c>
       <c r="C31">
-        <v>-0.07392845078035261</v>
+        <v>-0.08229941486201396</v>
       </c>
       <c r="D31">
-        <v>-0.05734640476281182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0431353499473292</v>
+      </c>
+      <c r="E31">
+        <v>0.01177405479625615</v>
+      </c>
+      <c r="F31">
+        <v>-0.03620792208079053</v>
+      </c>
+      <c r="G31">
+        <v>-0.01579862589169781</v>
+      </c>
+      <c r="H31">
+        <v>-0.01059148890230144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02478118389268544</v>
+        <v>-0.02334833524169258</v>
       </c>
       <c r="C32">
-        <v>-0.02583945449385511</v>
+        <v>-0.03104889751288177</v>
       </c>
       <c r="D32">
-        <v>-0.100926605685216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1213951571146199</v>
+      </c>
+      <c r="E32">
+        <v>0.03709483270962814</v>
+      </c>
+      <c r="F32">
+        <v>-0.0597583014756316</v>
+      </c>
+      <c r="G32">
+        <v>-0.01261441787802454</v>
+      </c>
+      <c r="H32">
+        <v>-0.02764697247646673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02189093862305625</v>
+        <v>-0.02117766733721126</v>
       </c>
       <c r="C33">
-        <v>-0.04519229803616544</v>
+        <v>-0.05188001400773094</v>
       </c>
       <c r="D33">
-        <v>-0.1486280277569267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.137946597224058</v>
+      </c>
+      <c r="E33">
+        <v>0.02401487966301845</v>
+      </c>
+      <c r="F33">
+        <v>-0.03512531166622441</v>
+      </c>
+      <c r="G33">
+        <v>-0.01124777627010616</v>
+      </c>
+      <c r="H33">
+        <v>-0.04541907390828915</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03593768860275073</v>
+        <v>-0.02605642530885173</v>
       </c>
       <c r="C34">
-        <v>-0.06185546463760789</v>
+        <v>-0.06458088796915963</v>
       </c>
       <c r="D34">
-        <v>-0.06782305386170108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05001689041025493</v>
+      </c>
+      <c r="E34">
+        <v>-0.01861148258060994</v>
+      </c>
+      <c r="F34">
+        <v>0.01503795363064904</v>
+      </c>
+      <c r="G34">
+        <v>-0.02517423203502329</v>
+      </c>
+      <c r="H34">
+        <v>-0.04303154000186383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.001326876305744594</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.00211323198904179</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01026602293798772</v>
+      </c>
+      <c r="E35">
+        <v>-0.000708707421227797</v>
+      </c>
+      <c r="F35">
+        <v>-0.001976879933218865</v>
+      </c>
+      <c r="G35">
+        <v>-0.0007632774467162231</v>
+      </c>
+      <c r="H35">
+        <v>-0.002639738400074183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01886484554669781</v>
+        <v>-0.01841742227909132</v>
       </c>
       <c r="C36">
-        <v>-0.009849790775751283</v>
+        <v>-0.01959726007457274</v>
       </c>
       <c r="D36">
-        <v>-0.09602011663666163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08722476906977418</v>
+      </c>
+      <c r="E36">
+        <v>0.01663937714160809</v>
+      </c>
+      <c r="F36">
+        <v>-0.02272061989236763</v>
+      </c>
+      <c r="G36">
+        <v>0.003619660754606564</v>
+      </c>
+      <c r="H36">
+        <v>-0.04046826399085535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01754573832320701</v>
+        <v>-0.02153834904667699</v>
       </c>
       <c r="C38">
-        <v>-0.01548523965834965</v>
+        <v>-0.01901977024127714</v>
       </c>
       <c r="D38">
-        <v>-0.08308211418049467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07973399326020209</v>
+      </c>
+      <c r="E38">
+        <v>0.0298312544866947</v>
+      </c>
+      <c r="F38">
+        <v>0.01112977883643495</v>
+      </c>
+      <c r="G38">
+        <v>-0.02482829118492797</v>
+      </c>
+      <c r="H38">
+        <v>-0.03535906095411698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03751984907642338</v>
+        <v>-0.02939588595667012</v>
       </c>
       <c r="C39">
-        <v>-0.05937555488368566</v>
+        <v>-0.07367009684316385</v>
       </c>
       <c r="D39">
-        <v>-0.1097035167205952</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1097181205549613</v>
+      </c>
+      <c r="E39">
+        <v>-0.01118839226014787</v>
+      </c>
+      <c r="F39">
+        <v>0.009167425077478567</v>
+      </c>
+      <c r="G39">
+        <v>-0.003339049434179073</v>
+      </c>
+      <c r="H39">
+        <v>-0.08511098034316729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01593293183109114</v>
+        <v>-0.01257196051883691</v>
       </c>
       <c r="C40">
-        <v>-0.04379011862296201</v>
+        <v>-0.04000226569259573</v>
       </c>
       <c r="D40">
-        <v>-0.09022566247038756</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09449076308003666</v>
+      </c>
+      <c r="E40">
+        <v>0.02982008003561252</v>
+      </c>
+      <c r="F40">
+        <v>-0.103374129071635</v>
+      </c>
+      <c r="G40">
+        <v>-0.1780115609919219</v>
+      </c>
+      <c r="H40">
+        <v>-0.1047210803242909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03061881961878709</v>
+        <v>-0.02839914861609663</v>
       </c>
       <c r="C41">
-        <v>-0.004551205052378311</v>
+        <v>-0.01381540281737609</v>
       </c>
       <c r="D41">
-        <v>-0.07128144533343786</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0525261117135712</v>
+      </c>
+      <c r="E41">
+        <v>0.0453879614607897</v>
+      </c>
+      <c r="F41">
+        <v>-0.01661029971240384</v>
+      </c>
+      <c r="G41">
+        <v>-0.03314513698243415</v>
+      </c>
+      <c r="H41">
+        <v>-0.03906384069025525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02511657451576822</v>
+        <v>-0.02128655707812127</v>
       </c>
       <c r="C43">
-        <v>-0.01296528998861274</v>
+        <v>-0.01990880461424315</v>
       </c>
       <c r="D43">
-        <v>-0.1054448439682431</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08047561011804655</v>
+      </c>
+      <c r="E43">
+        <v>0.02558754075869551</v>
+      </c>
+      <c r="F43">
+        <v>-0.01317779919597364</v>
+      </c>
+      <c r="G43">
+        <v>-0.02867132132566536</v>
+      </c>
+      <c r="H43">
+        <v>-0.04752182307218634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01426218463653739</v>
+        <v>-0.01565727408532333</v>
       </c>
       <c r="C44">
-        <v>-0.04389501307253479</v>
+        <v>-0.04518269236219644</v>
       </c>
       <c r="D44">
-        <v>-0.0943406528107117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1108525676975123</v>
+      </c>
+      <c r="E44">
+        <v>0.03079168676843571</v>
+      </c>
+      <c r="F44">
+        <v>-0.02371021256143244</v>
+      </c>
+      <c r="G44">
+        <v>-0.008787746652184732</v>
+      </c>
+      <c r="H44">
+        <v>-0.04982579666693845</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01631628601565298</v>
+        <v>-0.01182911560299135</v>
       </c>
       <c r="C46">
-        <v>-0.02681887829823135</v>
+        <v>-0.03495882785480144</v>
       </c>
       <c r="D46">
-        <v>-0.1058439145423079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09974590562202455</v>
+      </c>
+      <c r="E46">
+        <v>0.01222898677254956</v>
+      </c>
+      <c r="F46">
+        <v>-0.02313030039525139</v>
+      </c>
+      <c r="G46">
+        <v>-0.01097724183021265</v>
+      </c>
+      <c r="H46">
+        <v>-0.08396464504419883</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09080192619466251</v>
+        <v>-0.07128596593091921</v>
       </c>
       <c r="C47">
-        <v>-0.08684303760478775</v>
+        <v>-0.1021040160572744</v>
       </c>
       <c r="D47">
-        <v>-0.02913693726945361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0239298073447632</v>
+      </c>
+      <c r="E47">
+        <v>0.0226644105062668</v>
+      </c>
+      <c r="F47">
+        <v>-0.02008317486179234</v>
+      </c>
+      <c r="G47">
+        <v>-0.004636499506002127</v>
+      </c>
+      <c r="H47">
+        <v>0.05717248643970294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01250727977736212</v>
+        <v>-0.01360965551525606</v>
       </c>
       <c r="C48">
-        <v>-0.02192536656274086</v>
+        <v>-0.02646415654131312</v>
       </c>
       <c r="D48">
-        <v>-0.08741557515084727</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08523211413633741</v>
+      </c>
+      <c r="E48">
+        <v>0.04425566845159218</v>
+      </c>
+      <c r="F48">
+        <v>-0.03022956529861901</v>
+      </c>
+      <c r="G48">
+        <v>-0.004944023153626085</v>
+      </c>
+      <c r="H48">
+        <v>-0.05917557448906964</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05302337398327996</v>
+        <v>-0.03946151771188937</v>
       </c>
       <c r="C50">
-        <v>-0.06046159412614182</v>
+        <v>-0.07038741934571763</v>
       </c>
       <c r="D50">
-        <v>-0.06386128102172856</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05293335500241</v>
+      </c>
+      <c r="E50">
+        <v>0.01575820125471404</v>
+      </c>
+      <c r="F50">
+        <v>-0.03733562200102375</v>
+      </c>
+      <c r="G50">
+        <v>-0.03995951742907106</v>
+      </c>
+      <c r="H50">
+        <v>0.002049546372664683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01130591307349556</v>
+        <v>-0.009399629840238012</v>
       </c>
       <c r="C51">
-        <v>-0.01781548887300129</v>
+        <v>-0.02409558727827676</v>
       </c>
       <c r="D51">
-        <v>-0.09127189505512552</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09466728344124341</v>
+      </c>
+      <c r="E51">
+        <v>-0.006578732603952146</v>
+      </c>
+      <c r="F51">
+        <v>-0.008856559261271324</v>
+      </c>
+      <c r="G51">
+        <v>0.001796316317750312</v>
+      </c>
+      <c r="H51">
+        <v>-0.07143830413310132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1066576115043592</v>
+        <v>-0.09173009099917384</v>
       </c>
       <c r="C53">
-        <v>-0.1054837374113061</v>
+        <v>-0.1241093192795126</v>
       </c>
       <c r="D53">
-        <v>0.01345386531965737</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006010169743220595</v>
+      </c>
+      <c r="E53">
+        <v>0.07348126799596114</v>
+      </c>
+      <c r="F53">
+        <v>-0.08066246743343909</v>
+      </c>
+      <c r="G53">
+        <v>-0.002791629094086872</v>
+      </c>
+      <c r="H53">
+        <v>0.01410113951769816</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0199464781703933</v>
+        <v>-0.01808190683973188</v>
       </c>
       <c r="C54">
-        <v>-0.02771791803473824</v>
+        <v>-0.03606504162562976</v>
       </c>
       <c r="D54">
-        <v>-0.1119331206937949</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09652151963747498</v>
+      </c>
+      <c r="E54">
+        <v>0.02471362828470382</v>
+      </c>
+      <c r="F54">
+        <v>-0.01726211126037182</v>
+      </c>
+      <c r="G54">
+        <v>-0.04604114151891828</v>
+      </c>
+      <c r="H54">
+        <v>-0.06494702425932841</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09871980666270325</v>
+        <v>-0.08211977062353154</v>
       </c>
       <c r="C55">
-        <v>-0.0807876623999971</v>
+        <v>-0.09864183898956992</v>
       </c>
       <c r="D55">
-        <v>0.02529899143691106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02179986699450193</v>
+      </c>
+      <c r="E55">
+        <v>0.02394179878545965</v>
+      </c>
+      <c r="F55">
+        <v>-0.06375453754836262</v>
+      </c>
+      <c r="G55">
+        <v>-0.02747784513840982</v>
+      </c>
+      <c r="H55">
+        <v>0.02064239759532819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1378667637907635</v>
+        <v>-0.1140780929680077</v>
       </c>
       <c r="C56">
-        <v>-0.1147549754716325</v>
+        <v>-0.1468352166849859</v>
       </c>
       <c r="D56">
-        <v>0.02390116438331914</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02409550616733011</v>
+      </c>
+      <c r="E56">
+        <v>0.05002798938415687</v>
+      </c>
+      <c r="F56">
+        <v>-0.05348242524250831</v>
+      </c>
+      <c r="G56">
+        <v>-0.0341756665243715</v>
+      </c>
+      <c r="H56">
+        <v>0.03992325670397043</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.006672871615804255</v>
+        <v>-0.003757239970597381</v>
       </c>
       <c r="C58">
-        <v>-0.04064259820348916</v>
+        <v>-0.05297111653674814</v>
       </c>
       <c r="D58">
-        <v>-0.1965851915083551</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2632443769078375</v>
+      </c>
+      <c r="E58">
+        <v>0.09937562131579912</v>
+      </c>
+      <c r="F58">
+        <v>-0.1198570916709083</v>
+      </c>
+      <c r="G58">
+        <v>-0.06968841226435306</v>
+      </c>
+      <c r="H58">
+        <v>0.01745821679160636</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1513343985543166</v>
+        <v>-0.1963505068433894</v>
       </c>
       <c r="C59">
-        <v>0.1676582259237597</v>
+        <v>0.1410460492488821</v>
       </c>
       <c r="D59">
-        <v>-0.05823691784827135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.07185550205422674</v>
+      </c>
+      <c r="E59">
+        <v>0.04347630357278703</v>
+      </c>
+      <c r="F59">
+        <v>0.01850329161988225</v>
+      </c>
+      <c r="G59">
+        <v>0.01438280006789291</v>
+      </c>
+      <c r="H59">
+        <v>0.02003231427154072</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2305131445072405</v>
+        <v>-0.2081255233449314</v>
       </c>
       <c r="C60">
-        <v>-0.08048243893808894</v>
+        <v>-0.1262819855056925</v>
       </c>
       <c r="D60">
-        <v>-0.1628697538142009</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1090993546696673</v>
+      </c>
+      <c r="E60">
+        <v>-0.3216585608993205</v>
+      </c>
+      <c r="F60">
+        <v>0.107871587668174</v>
+      </c>
+      <c r="G60">
+        <v>0.09111803726489683</v>
+      </c>
+      <c r="H60">
+        <v>0.1819089227965042</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04377482220806972</v>
+        <v>-0.03443285420097236</v>
       </c>
       <c r="C61">
-        <v>-0.05695894768320686</v>
+        <v>-0.06770615028887912</v>
       </c>
       <c r="D61">
-        <v>-0.1167184644839309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09702336179709706</v>
+      </c>
+      <c r="E61">
+        <v>-0.01199408974678717</v>
+      </c>
+      <c r="F61">
+        <v>0.008608386245848748</v>
+      </c>
+      <c r="G61">
+        <v>-0.002055797996475757</v>
+      </c>
+      <c r="H61">
+        <v>-0.04468026752135833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01518275966960063</v>
+        <v>-0.01277646114551335</v>
       </c>
       <c r="C63">
-        <v>-0.0271100015340783</v>
+        <v>-0.03566413903145393</v>
       </c>
       <c r="D63">
-        <v>-0.0870548263540581</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0770985469579084</v>
+      </c>
+      <c r="E63">
+        <v>-0.0001518513091909338</v>
+      </c>
+      <c r="F63">
+        <v>-0.02401678907521283</v>
+      </c>
+      <c r="G63">
+        <v>-0.005867727232976932</v>
+      </c>
+      <c r="H63">
+        <v>-0.04964523046285627</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05685760219156799</v>
+        <v>-0.0430361562977031</v>
       </c>
       <c r="C64">
-        <v>-0.07575325461667079</v>
+        <v>-0.0849897396974592</v>
       </c>
       <c r="D64">
-        <v>-0.05264005646362746</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05210402909867441</v>
+      </c>
+      <c r="E64">
+        <v>0.009356196185122482</v>
+      </c>
+      <c r="F64">
+        <v>-0.005372180875093412</v>
+      </c>
+      <c r="G64">
+        <v>0.07406080471426017</v>
+      </c>
+      <c r="H64">
+        <v>-0.07410817374249069</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03106244875535426</v>
+        <v>-0.02876266484900898</v>
       </c>
       <c r="C65">
-        <v>-0.02320076517236403</v>
+        <v>-0.03479367478720023</v>
       </c>
       <c r="D65">
-        <v>-0.1123479898035571</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1088440499990785</v>
+      </c>
+      <c r="E65">
+        <v>-0.003584987061628146</v>
+      </c>
+      <c r="F65">
+        <v>-0.03288926145312407</v>
+      </c>
+      <c r="G65">
+        <v>-0.01404754503986487</v>
+      </c>
+      <c r="H65">
+        <v>-0.02350274378266742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04092875943219833</v>
+        <v>-0.03290017454169007</v>
       </c>
       <c r="C66">
-        <v>-0.06851602254718064</v>
+        <v>-0.08631116314233263</v>
       </c>
       <c r="D66">
-        <v>-0.1227137597031512</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1348990845442879</v>
+      </c>
+      <c r="E66">
+        <v>-0.00654213418763885</v>
+      </c>
+      <c r="F66">
+        <v>0.00395648837686587</v>
+      </c>
+      <c r="G66">
+        <v>-0.01381392692205176</v>
+      </c>
+      <c r="H66">
+        <v>-0.04373495448294801</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03894281916979205</v>
+        <v>-0.03742966377401096</v>
       </c>
       <c r="C67">
-        <v>-0.02118465637701759</v>
+        <v>-0.02786221411587288</v>
       </c>
       <c r="D67">
-        <v>-0.04589897271094538</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03385990875909718</v>
+      </c>
+      <c r="E67">
+        <v>0.006017275398547639</v>
+      </c>
+      <c r="F67">
+        <v>0.02553660796739457</v>
+      </c>
+      <c r="G67">
+        <v>-0.02442476923734116</v>
+      </c>
+      <c r="H67">
+        <v>-0.03918500989381842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1837933628938392</v>
+        <v>-0.2261700676179783</v>
       </c>
       <c r="C68">
-        <v>0.2011172343538368</v>
+        <v>0.1647027283916666</v>
       </c>
       <c r="D68">
-        <v>-0.02309964078301954</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03021689048742249</v>
+      </c>
+      <c r="E68">
+        <v>0.01596481325310471</v>
+      </c>
+      <c r="F68">
+        <v>-0.03722553716842091</v>
+      </c>
+      <c r="G68">
+        <v>-0.02559443969253249</v>
+      </c>
+      <c r="H68">
+        <v>0.02019809152926724</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08616776572156849</v>
+        <v>-0.06541787238329688</v>
       </c>
       <c r="C69">
-        <v>-0.1020359393324435</v>
+        <v>-0.1084162028412874</v>
       </c>
       <c r="D69">
-        <v>-0.06397687698909511</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03994734568999848</v>
+      </c>
+      <c r="E69">
+        <v>0.002723573548108584</v>
+      </c>
+      <c r="F69">
+        <v>-0.00685024244388791</v>
+      </c>
+      <c r="G69">
+        <v>-0.008785097725130624</v>
+      </c>
+      <c r="H69">
+        <v>0.02852720870263554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.170494264758861</v>
+        <v>-0.2138250493010623</v>
       </c>
       <c r="C71">
-        <v>0.2084903466487648</v>
+        <v>0.1741763453118166</v>
       </c>
       <c r="D71">
-        <v>-0.01651864420932335</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02731070481424535</v>
+      </c>
+      <c r="E71">
+        <v>0.03578381705569716</v>
+      </c>
+      <c r="F71">
+        <v>-0.05873093607582151</v>
+      </c>
+      <c r="G71">
+        <v>-0.04545790184572888</v>
+      </c>
+      <c r="H71">
+        <v>0.02118619584049148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1082651831449756</v>
+        <v>-0.0930688926824829</v>
       </c>
       <c r="C72">
-        <v>-0.06292379127801659</v>
+        <v>-0.09265036204205383</v>
       </c>
       <c r="D72">
-        <v>-0.07848692832798086</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08120674759829108</v>
+      </c>
+      <c r="E72">
+        <v>-0.06726050156869322</v>
+      </c>
+      <c r="F72">
+        <v>-0.03836796746894324</v>
+      </c>
+      <c r="G72">
+        <v>0.0007194862853380275</v>
+      </c>
+      <c r="H72">
+        <v>-0.0258945881700096</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2162307395233538</v>
+        <v>-0.1933514300673758</v>
       </c>
       <c r="C73">
-        <v>-0.04626529130379035</v>
+        <v>-0.1045350444511851</v>
       </c>
       <c r="D73">
-        <v>-0.2754601148247415</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1511968557842706</v>
+      </c>
+      <c r="E73">
+        <v>-0.5711737662382776</v>
+      </c>
+      <c r="F73">
+        <v>0.1848648975771577</v>
+      </c>
+      <c r="G73">
+        <v>0.1630873048656554</v>
+      </c>
+      <c r="H73">
+        <v>0.2227147871346856</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1108321470125717</v>
+        <v>-0.08995855007650828</v>
       </c>
       <c r="C74">
-        <v>-0.0894302950593821</v>
+        <v>-0.1100898580463951</v>
       </c>
       <c r="D74">
-        <v>0.03806864611410279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03786831196563705</v>
+      </c>
+      <c r="E74">
+        <v>0.03099224876109986</v>
+      </c>
+      <c r="F74">
+        <v>-0.06783099103410499</v>
+      </c>
+      <c r="G74">
+        <v>0.01488155692441803</v>
+      </c>
+      <c r="H74">
+        <v>0.03341169894709147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2602262705638896</v>
+        <v>-0.2155100587179552</v>
       </c>
       <c r="C75">
-        <v>-0.1520962572984813</v>
+        <v>-0.19982065907298</v>
       </c>
       <c r="D75">
-        <v>0.1281147262305521</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1437388918569546</v>
+      </c>
+      <c r="E75">
+        <v>0.08364132334204749</v>
+      </c>
+      <c r="F75">
+        <v>-0.01943534757429894</v>
+      </c>
+      <c r="G75">
+        <v>-0.05396550129198677</v>
+      </c>
+      <c r="H75">
+        <v>0.0494955831261537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1512321663451781</v>
+        <v>-0.1216025272025129</v>
       </c>
       <c r="C76">
-        <v>-0.1162703781305538</v>
+        <v>-0.1426515324590705</v>
       </c>
       <c r="D76">
-        <v>0.02135606496887409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03127680209502018</v>
+      </c>
+      <c r="E76">
+        <v>0.06956377250768676</v>
+      </c>
+      <c r="F76">
+        <v>-0.03358109607803262</v>
+      </c>
+      <c r="G76">
+        <v>-0.02982614067797689</v>
+      </c>
+      <c r="H76">
+        <v>-0.02854824031317821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04491210053914758</v>
+        <v>-0.0471835784174959</v>
       </c>
       <c r="C77">
-        <v>-0.07782733283716249</v>
+        <v>-0.08438188082028469</v>
       </c>
       <c r="D77">
-        <v>-0.04369530868804958</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1426194837676625</v>
+      </c>
+      <c r="E77">
+        <v>0.5055016886730553</v>
+      </c>
+      <c r="F77">
+        <v>0.3885379577034926</v>
+      </c>
+      <c r="G77">
+        <v>-0.104445428636108</v>
+      </c>
+      <c r="H77">
+        <v>0.6546964446132332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04154415993810249</v>
+        <v>-0.03884768252807754</v>
       </c>
       <c r="C78">
-        <v>-0.06291172771686747</v>
+        <v>-0.07456013965716918</v>
       </c>
       <c r="D78">
-        <v>-0.1377596000205643</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1401404146103702</v>
+      </c>
+      <c r="E78">
+        <v>0.00607358312413533</v>
+      </c>
+      <c r="F78">
+        <v>-0.03850525399103939</v>
+      </c>
+      <c r="G78">
+        <v>0.006385143654570936</v>
+      </c>
+      <c r="H78">
+        <v>0.01686450582201471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05816360477950915</v>
+        <v>-0.05259034892999961</v>
       </c>
       <c r="C79">
-        <v>-0.1073054379514564</v>
+        <v>-0.1196096711383408</v>
       </c>
       <c r="D79">
-        <v>0.1575384620626987</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06696069945664035</v>
+      </c>
+      <c r="E79">
+        <v>0.2105743586359224</v>
+      </c>
+      <c r="F79">
+        <v>-0.4556203250954478</v>
+      </c>
+      <c r="G79">
+        <v>0.7540561292178389</v>
+      </c>
+      <c r="H79">
+        <v>0.1318082023839351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0224136914584584</v>
+        <v>-0.01834720880846268</v>
       </c>
       <c r="C80">
-        <v>-0.04858138435524299</v>
+        <v>-0.0493898378773295</v>
       </c>
       <c r="D80">
-        <v>-0.030538174621796</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02607059551897017</v>
+      </c>
+      <c r="E80">
+        <v>0.0009899742821646714</v>
+      </c>
+      <c r="F80">
+        <v>-0.01883447169197636</v>
+      </c>
+      <c r="G80">
+        <v>-0.02913355155661092</v>
+      </c>
+      <c r="H80">
+        <v>-0.05053004185407744</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1355747764606147</v>
+        <v>-0.1051312900057246</v>
       </c>
       <c r="C81">
-        <v>-0.1191124850652195</v>
+        <v>-0.139905901530982</v>
       </c>
       <c r="D81">
-        <v>0.1034603603982545</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1017876518131538</v>
+      </c>
+      <c r="E81">
+        <v>0.09189342807335249</v>
+      </c>
+      <c r="F81">
+        <v>-0.05485925782665343</v>
+      </c>
+      <c r="G81">
+        <v>-0.02450151458735958</v>
+      </c>
+      <c r="H81">
+        <v>-0.02462390002507844</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2704973867864645</v>
+        <v>-0.2040997800430827</v>
       </c>
       <c r="C82">
-        <v>-0.2418868704611866</v>
+        <v>-0.2663101526018019</v>
       </c>
       <c r="D82">
-        <v>0.2312340857320256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.234050108320517</v>
+      </c>
+      <c r="E82">
+        <v>0.005552497317453643</v>
+      </c>
+      <c r="F82">
+        <v>0.05612628977126283</v>
+      </c>
+      <c r="G82">
+        <v>-0.07229799231239857</v>
+      </c>
+      <c r="H82">
+        <v>-0.002143264836304425</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02065546734455561</v>
+        <v>-0.01187862161934844</v>
       </c>
       <c r="C83">
-        <v>-0.06113837452641255</v>
+        <v>-0.05558928912222454</v>
       </c>
       <c r="D83">
-        <v>-0.05127924849554793</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05798294114413029</v>
+      </c>
+      <c r="E83">
+        <v>0.0553899384141526</v>
+      </c>
+      <c r="F83">
+        <v>0.07580402301443294</v>
+      </c>
+      <c r="G83">
+        <v>0.01447206349763014</v>
+      </c>
+      <c r="H83">
+        <v>0.03103317705894017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.001166878191286797</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.007994229395448161</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02241340313124669</v>
+      </c>
+      <c r="E84">
+        <v>0.0140987498704408</v>
+      </c>
+      <c r="F84">
+        <v>-0.02390510328722098</v>
+      </c>
+      <c r="G84">
+        <v>-0.01245665051914818</v>
+      </c>
+      <c r="H84">
+        <v>-0.02171151868280784</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.168429398377585</v>
+        <v>-0.1357275199017438</v>
       </c>
       <c r="C85">
-        <v>-0.1242860003168798</v>
+        <v>-0.1606048104303441</v>
       </c>
       <c r="D85">
-        <v>0.06718925616446482</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08730254459961916</v>
+      </c>
+      <c r="E85">
+        <v>0.01960017667921656</v>
+      </c>
+      <c r="F85">
+        <v>-0.05833169474317553</v>
+      </c>
+      <c r="G85">
+        <v>0.04839942810689445</v>
+      </c>
+      <c r="H85">
+        <v>-0.02537951233529391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02191077634112749</v>
+        <v>-0.01934112274200106</v>
       </c>
       <c r="C86">
-        <v>-0.03605514215419305</v>
+        <v>-0.03741470509578439</v>
       </c>
       <c r="D86">
-        <v>-0.1175673663022642</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1204218417968903</v>
+      </c>
+      <c r="E86">
+        <v>0.0233883773409596</v>
+      </c>
+      <c r="F86">
+        <v>0.01637196281630154</v>
+      </c>
+      <c r="G86">
+        <v>-0.0360024404128067</v>
+      </c>
+      <c r="H86">
+        <v>0.06309060903740754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02525625371799337</v>
+        <v>-0.03026856818188046</v>
       </c>
       <c r="C87">
-        <v>-0.02690548304585182</v>
+        <v>-0.03905874850950611</v>
       </c>
       <c r="D87">
-        <v>-0.1157900101292591</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1427723268552065</v>
+      </c>
+      <c r="E87">
+        <v>0.05286760041400555</v>
+      </c>
+      <c r="F87">
+        <v>-0.03301130527318986</v>
+      </c>
+      <c r="G87">
+        <v>-0.01804048128732449</v>
+      </c>
+      <c r="H87">
+        <v>-0.04743569716657078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07419929932759267</v>
+        <v>-0.06045064458155053</v>
       </c>
       <c r="C88">
-        <v>-0.0450187456688186</v>
+        <v>-0.06187180165523152</v>
       </c>
       <c r="D88">
-        <v>-0.05088135721944678</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02279171064323507</v>
+      </c>
+      <c r="E88">
+        <v>0.004196130627991023</v>
+      </c>
+      <c r="F88">
+        <v>-0.02840314344615021</v>
+      </c>
+      <c r="G88">
+        <v>0.001610098412738574</v>
+      </c>
+      <c r="H88">
+        <v>-0.04379640764280834</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2666937833960453</v>
+        <v>-0.3288222756128953</v>
       </c>
       <c r="C89">
-        <v>0.3806400586454604</v>
+        <v>0.3063490152949628</v>
       </c>
       <c r="D89">
-        <v>0.0009108502988298364</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.007738725893028108</v>
+      </c>
+      <c r="E89">
+        <v>0.05811548776377014</v>
+      </c>
+      <c r="F89">
+        <v>-0.007772793312762098</v>
+      </c>
+      <c r="G89">
+        <v>0.02316313422944232</v>
+      </c>
+      <c r="H89">
+        <v>-0.1573174896163908</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2246713830718633</v>
+        <v>-0.2691295325570343</v>
       </c>
       <c r="C90">
-        <v>0.2760371113368342</v>
+        <v>0.2143475498682151</v>
       </c>
       <c r="D90">
-        <v>-0.02768745777272049</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03653864705415876</v>
+      </c>
+      <c r="E90">
+        <v>0.04132281434779193</v>
+      </c>
+      <c r="F90">
+        <v>-0.003605798707300821</v>
+      </c>
+      <c r="G90">
+        <v>-0.06218329494172386</v>
+      </c>
+      <c r="H90">
+        <v>-0.0192880947458226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1729183792941757</v>
+        <v>-0.1353089987721451</v>
       </c>
       <c r="C91">
-        <v>-0.1628645430236012</v>
+        <v>-0.1785282236326625</v>
       </c>
       <c r="D91">
-        <v>0.1270383772352081</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1177819047548319</v>
+      </c>
+      <c r="E91">
+        <v>0.09811867966751206</v>
+      </c>
+      <c r="F91">
+        <v>-0.0652519122050159</v>
+      </c>
+      <c r="G91">
+        <v>0.03122613980041619</v>
+      </c>
+      <c r="H91">
+        <v>0.03264977268964998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1903324058599626</v>
+        <v>-0.2571753011068674</v>
       </c>
       <c r="C92">
-        <v>0.2689943927530454</v>
+        <v>0.238269977623116</v>
       </c>
       <c r="D92">
-        <v>-0.02410233342025494</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03459946757031526</v>
+      </c>
+      <c r="E92">
+        <v>0.1054355401874479</v>
+      </c>
+      <c r="F92">
+        <v>-0.01422534951155457</v>
+      </c>
+      <c r="G92">
+        <v>-0.01014689166714796</v>
+      </c>
+      <c r="H92">
+        <v>-0.06033284186184518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2415832553745697</v>
+        <v>-0.2839381246995896</v>
       </c>
       <c r="C93">
-        <v>0.3022730656230107</v>
+        <v>0.2342111533133252</v>
       </c>
       <c r="D93">
-        <v>-0.02823237469459006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01058060765345021</v>
+      </c>
+      <c r="E93">
+        <v>-0.02319324077792726</v>
+      </c>
+      <c r="F93">
+        <v>-0.03739643032382716</v>
+      </c>
+      <c r="G93">
+        <v>0.01231883013037222</v>
+      </c>
+      <c r="H93">
+        <v>0.03087587368121216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3480901668963478</v>
+        <v>-0.2828381881664551</v>
       </c>
       <c r="C94">
-        <v>-0.2069185501297764</v>
+        <v>-0.2815147242459229</v>
       </c>
       <c r="D94">
-        <v>0.3524624053090539</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3788383320934636</v>
+      </c>
+      <c r="E94">
+        <v>0.01604783032491954</v>
+      </c>
+      <c r="F94">
+        <v>0.03929750347027355</v>
+      </c>
+      <c r="G94">
+        <v>-0.2543916574738609</v>
+      </c>
+      <c r="H94">
+        <v>-0.217807257373462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07177602089514978</v>
+        <v>-0.06424634653317407</v>
       </c>
       <c r="C95">
-        <v>-0.06944117817428752</v>
+        <v>-0.08041575548358494</v>
       </c>
       <c r="D95">
-        <v>-0.1586810060592019</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1262627556659484</v>
+      </c>
+      <c r="E95">
+        <v>0.2145128232513025</v>
+      </c>
+      <c r="F95">
+        <v>0.6520955683264071</v>
+      </c>
+      <c r="G95">
+        <v>0.4110312815159171</v>
+      </c>
+      <c r="H95">
+        <v>-0.4463161524688822</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-2.890056646417511e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>9.674978674275232e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0001179059846679705</v>
+      </c>
+      <c r="E97">
+        <v>-0.0002192230923831651</v>
+      </c>
+      <c r="F97">
+        <v>-0.0001731971503461558</v>
+      </c>
+      <c r="G97">
+        <v>-0.0003693878569517862</v>
+      </c>
+      <c r="H97">
+        <v>0.0003210701477769883</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.171515071459335</v>
+        <v>-0.1584304121595407</v>
       </c>
       <c r="C98">
-        <v>-0.05840718800684199</v>
+        <v>-0.09939347753901231</v>
       </c>
       <c r="D98">
-        <v>-0.143892170899313</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.09679413086147012</v>
+      </c>
+      <c r="E98">
+        <v>-0.3258936055939015</v>
+      </c>
+      <c r="F98">
+        <v>0.08885841367513739</v>
+      </c>
+      <c r="G98">
+        <v>0.08019790111776212</v>
+      </c>
+      <c r="H98">
+        <v>0.1300638577818179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003872245214467439</v>
+        <v>-0.005500890347419632</v>
       </c>
       <c r="C101">
-        <v>-0.0231232815398708</v>
+        <v>-0.02720130315862682</v>
       </c>
       <c r="D101">
-        <v>-0.09622970943182653</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1032363353505774</v>
+      </c>
+      <c r="E101">
+        <v>0.0008085187306990554</v>
+      </c>
+      <c r="F101">
+        <v>-0.04561469148087208</v>
+      </c>
+      <c r="G101">
+        <v>-0.02019278120222012</v>
+      </c>
+      <c r="H101">
+        <v>-0.08008515368468591</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1260990040764818</v>
+        <v>-0.09166407213245213</v>
       </c>
       <c r="C102">
-        <v>-0.1269043381356712</v>
+        <v>-0.1323705951408536</v>
       </c>
       <c r="D102">
-        <v>0.09645576568928946</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.1001170564304844</v>
+      </c>
+      <c r="E102">
+        <v>0.0280071167961226</v>
+      </c>
+      <c r="F102">
+        <v>0.03840940962496929</v>
+      </c>
+      <c r="G102">
+        <v>-0.03035851650393312</v>
+      </c>
+      <c r="H102">
+        <v>-0.00112665065134758</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
